--- a/Журнал отлова (short).xlsx
+++ b/Журнал отлова (short).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshar\source\repos\DogSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5841DD1B-3166-49C3-9631-D9ACCC2052BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C890D00-6BFA-40FD-8771-A6E82A54D411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="756">
   <si>
     <t>Дата</t>
   </si>
@@ -2290,6 +2290,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Мультикан 8</t>
   </si>
 </sst>
 </file>
@@ -9237,7 +9240,9 @@
       <c r="C150" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D150" s="28"/>
+      <c r="D150" s="28" t="s">
+        <v>754</v>
+      </c>
       <c r="E150" s="6" t="s">
         <v>407</v>
       </c>
@@ -9247,9 +9252,15 @@
       <c r="G150" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
+      <c r="H150" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>754</v>
+      </c>
       <c r="K150" s="6" t="s">
         <v>124</v>
       </c>
@@ -9262,14 +9273,18 @@
       <c r="N150" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="O150" s="28"/>
+      <c r="O150" s="28" t="s">
+        <v>755</v>
+      </c>
       <c r="P150" s="7" t="s">
         <v>750</v>
       </c>
       <c r="Q150" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="R150" s="6"/>
+      <c r="R150" s="6" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="151" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
